--- a/biology/Médecine/Hallucinose/Hallucinose.xlsx
+++ b/biology/Médecine/Hallucinose/Hallucinose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hallucinose est, en psychopathologie, un phénomène hallucinatoire léger (une fausse hallucination), constaté et critiqué par le patient. Ce phénomène est consécutif à une illusion ; c'est-à-dire la déformation de perception d’un objet. L'hallucinose est due à une mauvaise information reçue d'un objet extérieur existant. Elle peut « toucher » l'un de nos cinq sens humains communs (vue, ouïe, toucher, odorat, goût), ou même plusieurs sens à la fois.
-L'hallucinose est une pseudo-hallucination (« pseudo » voulant dire: « faussement attribué à »)[1]. L'hallucinose est à distinguer totalement de l'hallucination[2] qui est un phénomène hallucinatoire lourd, non constaté et donc non critiqué par le patient. Ce patient atteint de vraies hallucinations reste certain de la complète réalité de sa perception (perte de discernement).
+L'hallucinose est une pseudo-hallucination (« pseudo » voulant dire: « faussement attribué à »). L'hallucinose est à distinguer totalement de l'hallucination qui est un phénomène hallucinatoire lourd, non constaté et donc non critiqué par le patient. Ce patient atteint de vraies hallucinations reste certain de la complète réalité de sa perception (perte de discernement).
 Du point de vue de la sémiologie psychiatrique, pendant une hallucination, les phénomènes du psychique peuvent être aussi empreints d'un sentiment d'étrangeté, de télépathie (transmissions de pensée) ou d'intrusions dans les pensées du sujet, de pensée magique ou composé d'idées de référence. Ce sont des phénomènes qui sont absents de l'hallucinose.
 L’Échelle d'Évaluation Globale du Fonctionnement est utilisée en psychiatrie. Elle classe les symptômes de 1 (très grave, tel un geste suicidaire ou agressif) à 100 (Absence de symptôme). Cette échelle évaluerait une hallucination à un stade minimum de 51–60, alors que l'hallucinose ne serait qu'à un stade de 81–90.
 </t>
@@ -514,9 +526,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« J'ai dit hallucinose, pas hallucination. L'hallucination est un symptôme de maladie mentale, le patient croit à ce qu'il croit entendre. (...) L'hallucinose n'est pas un symptôme, mais un simple trouble; le sujet garde son sens critique vis-à-vis de ce qu'il a “entendu” ou “vu”. » - Jean-Pierre Dufreigne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« J'ai dit hallucinose, pas hallucination. L'hallucination est un symptôme de maladie mentale, le patient croit à ce qu'il croit entendre. (...) L'hallucinose n'est pas un symptôme, mais un simple trouble; le sujet garde son sens critique vis-à-vis de ce qu'il a “entendu” ou “vu”. » - Jean-Pierre Dufreigne.
 De l'hallucinose, on peut parler de « pseudo-hallucination ». Le patient reste critique quant à la réalité de la perception expérimentée. 
 Les syndromes de Charles Bonnet (hallucinose de l'aveugle), ou l'hallucinose des buveurs, ou les crises d'épilepsie temporale, en sont des exemples. 
 Les mécanismes généraux de l'hallucinose sont :
@@ -555,7 +569,9 @@
           <t>Hallucinoses visuelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hallucinose visuelle est une perception sans objet, assez proche de l’hallucination visuelle, mais moins grave, car généralement sans conséquence sur la santé du patient.
 Les mécanismes de l'hallucinose visuelle :
@@ -591,7 +607,9 @@
           <t>Hallucinoses auditives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hallucinose auditive est quasi similaire en mécanismes à l'hallucinose visuelle. Elle implique le système auditif et l’ouïe. Elle est une pseudo-hallucination auditive sans trouble de la conscience, ni participation affective du sujet.
 Les mécanismes de l'hallucinose auditive :
@@ -630,9 +648,11 @@
           <t>Hallucinoses tactiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le toucher chez l'homme est le sens le plus fondamental. Il apparaît vers le troisième mois de la vie utérine : la peau tactile est le premier-né des organes humains et le plus sensible[6]. Cette sensibilité de toucher peut se dérégler et constituer une hallucinose tactile.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le toucher chez l'homme est le sens le plus fondamental. Il apparaît vers le troisième mois de la vie utérine : la peau tactile est le premier-né des organes humains et le plus sensible. Cette sensibilité de toucher peut se dérégler et constituer une hallucinose tactile.
 </t>
         </is>
       </c>
@@ -663,12 +683,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hallucinose alcoolique
-L'hallucinose alcoolique, dite aussi hallucinose des buveurs, décrit un état hallucinatoire aigu sans trouble confusionnel, avec un automatisme mental chez la personne souffrant d'alcoolisme chronique survenant dans les 12 à 24 heures après sevrage.
-L'hallucinose alcoolique, décrite par Carl Wernicke, survient approximativement chez 20 % des alcooliques hospitalisés. Elle ne menace pas réellement la vie du patient. En revanche, le delirium tremens, un trouble neurologique qui est différent de l'hallucinose alcoolique, survient chez 5 à 10 % des alcooliques. Il cause à 15 % une mortalité avec traitement aux benzodiazépines, et à 35 % sans aucun traitement médical[7].
+          <t>Hallucinose alcoolique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hallucinose alcoolique, dite aussi hallucinose des buveurs, décrit un état hallucinatoire aigu sans trouble confusionnel, avec un automatisme mental chez la personne souffrant d'alcoolisme chronique survenant dans les 12 à 24 heures après sevrage.
+L'hallucinose alcoolique, décrite par Carl Wernicke, survient approximativement chez 20 % des alcooliques hospitalisés. Elle ne menace pas réellement la vie du patient. En revanche, le delirium tremens, un trouble neurologique qui est différent de l'hallucinose alcoolique, survient chez 5 à 10 % des alcooliques. Il cause à 15 % une mortalité avec traitement aux benzodiazépines, et à 35 % sans aucun traitement médical.
 Si la dose d'alcool est très importante, l'hallucinose alcoolique du début peut s'amplifier jusqu'à devenir une hallucination acoustico-verbale, au contenu persécutif, ou vécu comme tel. L'hallucination alcoolique ne sera plus critiquée par le patient. Cet état hallucinatoire s'accompagnera alors d'anxiété et d'agressivité. Et bien qu'en général il soit de courte durée, il peut parfois se prolonger, voire se chroniciser.
-Hallucinoses par substance hallucinogène
-Des substances hallucinogènes peuvent provoquer des hallucinoses temporaires :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hallucinose</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hallucinose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hallucinoses provoquées par un hallucinogène</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hallucinoses par substance hallucinogène</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des substances hallucinogènes peuvent provoquer des hallucinoses temporaires :
 des substances tels que certains champignons hallucinogènes ;
 des médicaments de type opiacés, hypnotiques, stimulants, etc.
 des composés chimiques psychédéliques, tels que LSD, psilocybine, DMT ;
@@ -678,36 +738,10 @@
 Il est à noter que la prise prolongée de drogues dites "dures" (LSD, héroïne, crack, etc.) peut créer des lésions physiques et cérébrales irréversibles qui provoqueront des hallucinations de type pharmacopsychose ou « psychose induite par une substance »; et même aller jusqu'à la mort prématurée de l'individu :
 Effets de l'héroïne sur la santé
 Effets de la cocaïne sur la santé
-La prise d’hallucinogènes peut provoquer des impressions de flashbacks. La littérature médicale les nomme aujourd'hui : HPPD, pour "Hallucinogenic persisting perception disorder" (troubles persistants de la perception par hallucinogène). Les recherches montrent que parmi ces HPPD après prise d'hallucinogène : 9 % des cas sont des hallucinoses auditives. Et parmi les types de distorsions visuelles, après prise d'hallucinogène : 58,6 % sont des hallucinoses géométriques[8].
+La prise d’hallucinogènes peut provoquer des impressions de flashbacks. La littérature médicale les nomme aujourd'hui : HPPD, pour "Hallucinogenic persisting perception disorder" (troubles persistants de la perception par hallucinogène). Les recherches montrent que parmi ces HPPD après prise d'hallucinogène : 9 % des cas sont des hallucinoses auditives. Et parmi les types de distorsions visuelles, après prise d'hallucinogène : 58,6 % sont des hallucinoses géométriques.
 </t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hallucinose</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hallucinose</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Hypnagogie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,10 +764,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Hypnagogie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hallucinose</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hallucinose</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Hypothèse d'hallucinose par champ magnétique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adeptes du scepticisme scientifique proposent avec l'hypothèse du champ magnétique, une explication rationnelle aux perceptions de phénomènes paranormaux; par exemple, les visions mystiques ou les observations liées aux objets volants non identifiés (ovnis).
 Pendant une crise d'épilepsie temporale, les neurones de la zone temporale sont très instables. Le relevé d'électro-encéphalogrammes est particulièrement "haché" (pics très hauts et très rapprochés). Le patient en crise va alors décrire des illusions visuelles et auditives particulièrement réalistes. Les perceptions sont vécues avec un réalisme si saisissant, que l'on y voit une sorte de "rêve-éveillé".
